--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\Writings\FASE-2019\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\Writings\ECMFA-2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DC7FE87-B065-415F-97A8-20E10A9A6178}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95412DEC-71AA-40DE-82B0-EDA531DC475F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10814" windowHeight="4211" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,14 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -20894,8 +20901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -22995,8 +23002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -23007,7 +23014,7 @@
     <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="4.25" customWidth="1"/>
-    <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
     <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.375" bestFit="1" customWidth="1"/>
@@ -25157,6 +25164,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="S33:W33"/>
     <mergeCell ref="S34:W34"/>
@@ -25164,11 +25176,6 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
